--- a/biology/Médecine/André_Capron_(médecin)/André_Capron_(médecin).xlsx
+++ b/biology/Médecine/André_Capron_(médecin)/André_Capron_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Capron_(m%C3%A9decin)</t>
+          <t>André_Capron_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Capron, né le 30 décembre 1930 à Lens (Pas-de-Calais) et mort le 10 janvier 2020 à Seclin (Nord), est un docteur en médecine[1], un immunologiste et parasitologue français. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Capron, né le 30 décembre 1930 à Lens (Pas-de-Calais) et mort le 10 janvier 2020 à Seclin (Nord), est un docteur en médecine, un immunologiste et parasitologue français. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Capron_(m%C3%A9decin)</t>
+          <t>André_Capron_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Capron était membre de l'Institut de France depuis 1988[2] et a été délégué aux relations internationales de l'Académie des sciences de 2003 à 2007. Il a été chef du service d'immunologie au CHU de Lille (1970-2000), professeur à l'université de Lille (1970-2000), directeur du centre d'immunologie et de biologie parasitaire à l'Institut Pasteur (1975-2001), directeur de l'Institut Pasteur de Lille (1994-2000). Il est professeur émérite à l'université de Lille et directeur honoraire de l'Institut Pasteur de Lille[3].
-André Capron a été président du conseil scientifique de l'Inserm (1987-1991), président du conseil d'administration de l'ANRS (1999-2002), président du comité stratégique régional de recherche en biologie et santé (depuis 1993), membre du conseil scientifique de l'École normale supérieure (depuis 2001). Il était, depuis 2006, président du Groupe inter-académique pour le développement[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Capron était membre de l'Institut de France depuis 1988 et a été délégué aux relations internationales de l'Académie des sciences de 2003 à 2007. Il a été chef du service d'immunologie au CHU de Lille (1970-2000), professeur à l'université de Lille (1970-2000), directeur du centre d'immunologie et de biologie parasitaire à l'Institut Pasteur (1975-2001), directeur de l'Institut Pasteur de Lille (1994-2000). Il est professeur émérite à l'université de Lille et directeur honoraire de l'Institut Pasteur de Lille.
+André Capron a été président du conseil scientifique de l'Inserm (1987-1991), président du conseil d'administration de l'ANRS (1999-2002), président du comité stratégique régional de recherche en biologie et santé (depuis 1993), membre du conseil scientifique de l'École normale supérieure (depuis 2001). Il était, depuis 2006, président du Groupe inter-académique pour le développement.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Capron_(m%C3%A9decin)</t>
+          <t>André_Capron_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'engagement d'André Capron pour le développement de la recherche biomédicale dans les pays du tiers Monde l'a amené à créer, avec Pierre Aigrain, la première Commission nationale « Santé et développement », puis à présider le premier programme européen Sciences et Techniques en faveur du développement (1983-1987). Il a été président du programme Bilharziose de l'OMS (1997-1983), et à l'issue de ce mandat, il a été membre du Scientific Advisory Group of Experts de l'OMS (1987-1999) et membre du Scientific and Technical Advisory Committee de l'OMS (1988-1992).
 André Capron a consacré l'ensemble de sa carrière scientifique à l'étude de la biologie des parasites et au développement de nouvelles stratégies de prévention des grandes endémies parasitaires, notamment les bilharzioses. Parallèlement à ses activités de recherche, il a pris une part active au développement de la recherche biomédicale dans les pays en développement.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Capron_(m%C3%A9decin)</t>
+          <t>André_Capron_(médecin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Prix Leveau de l'Académie nationale de médecine (1959)
@@ -595,13 +613,13 @@
 Prix international de médecine, King Faisal Foundation( 1990)
 Commandeur de l'ordre du Lion (1990)
 Commandeur de l'ordre national du Mérite (1990)
-Membre de l'Académie nationale de médecine (1991)[5]
+Membre de l'Académie nationale de médecine (1991)
 Membre honoraire de l'Académie royale de médecine de Belgique (1994)
 Docteur « honoris causa' » de l'université de Bruxelles (1997)
 Docteur honoris causa de l'université de Gand (1999)
 Grand Prix de la Fondation pour la Recherche médicale (2000)
 Officier de l'ordre national de la Légion d'honneur (2007)
-Commandeur de l'ordre national de la Légion d'honneur (2016)[6]
+Commandeur de l'ordre national de la Légion d'honneur (2016)
 </t>
         </is>
       </c>
@@ -612,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Capron_(m%C3%A9decin)</t>
+          <t>André_Capron_(médecin)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,7 +648,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ci-dessous, une liste des publications les plus représentatives d'André Capron. 
 (en) André Capron, J. Dessaint, M. Capron et al., « Specific IgE antibodies in immune adherence of normal macrophages to Schistosoma mansoni schistosomules », Nature, no 253,‎ 1975, p. 474–475 (DOI https://doi.org/10.1038/253474a0).
